--- a/data/candidates_template.xlsx
+++ b/data/candidates_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\Documents\GitHub\staffing-map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC51B388-1A34-450B-938A-073BF3724286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13EC5DB-B6C9-4CF3-8B02-2180BEBE3C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="15391" windowHeight="9533"/>
+    <workbookView xWindow="43245" yWindow="-5805" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidates_template" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -994,25 +994,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>validations!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>validations!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validations!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>validations!$D$2:$D$3</xm:f>
           </x14:formula1>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
